--- a/biology/Zoologie/Euglossini/Euglossini.xlsx
+++ b/biology/Zoologie/Euglossini/Euglossini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euglossini est une tribu d'insectes de la famille des apidés. Ses membres sont aussi appelés abeilles à orchidées ou abeilles euglossines[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euglossini est une tribu d'insectes de la famille des apidés. Ses membres sont aussi appelés abeilles à orchidées ou abeilles euglossines.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (4 mai 2019)[2] et NCBI  (4 mai 2019)[3]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (4 mai 2019) et NCBI  (4 mai 2019):
 genre Aglae Lepeletier &amp; Serville, 1825
 genre Eufriesea Cockerell, 1908
 genre Euglossa Latreille, 1802
@@ -546,9 +560,11 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les abeilles à orchidées produisent du miel grâce à la pollinisation des orchidées. Ce miel est parfumé, très riche en minéraux et essences aromatiques, et a un pouvoir cicatrisant. Ces abeilles volent d'orchidée en orchidée à la recherche de parfum[1]. Il semble que l'on doit aux seules espèces Euglossa viridissima et moins certainement Eulaema cingulata, espèces endémiques de certains pays d'Amérique (Mexique...) la fécondation naturelle des orchidées lianescentes tropicales du genre Vanilla, principalement de l'espèce Vanilla planifolia, dont le fruit est l'épice nommée vanille. C'est pourquoi, ces orchidées cultivées dans d'autres régions (Madagascar, La Réunion, Polynésie...) doivent être fécondées manuellement.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les abeilles à orchidées produisent du miel grâce à la pollinisation des orchidées. Ce miel est parfumé, très riche en minéraux et essences aromatiques, et a un pouvoir cicatrisant. Ces abeilles volent d'orchidée en orchidée à la recherche de parfum. Il semble que l'on doit aux seules espèces Euglossa viridissima et moins certainement Eulaema cingulata, espèces endémiques de certains pays d'Amérique (Mexique...) la fécondation naturelle des orchidées lianescentes tropicales du genre Vanilla, principalement de l'espèce Vanilla planifolia, dont le fruit est l'épice nommée vanille. C'est pourquoi, ces orchidées cultivées dans d'autres régions (Madagascar, La Réunion, Polynésie...) doivent être fécondées manuellement.
 </t>
         </is>
       </c>
